--- a/Speech Recognition.xlsx
+++ b/Speech Recognition.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tutorial Stuffs\Python Stuffs\Python Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tutorial Stuffs\Python Stuffs\Python Projects\optimizedSTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E757B152-1560-4E21-91E5-D54C317AEC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8E88A0-4F4C-467B-A17F-4D3A010D610D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9ED2CF56-0BD5-4CA8-8E98-77771F1E2FB7}"/>
   </bookViews>
@@ -157,8 +157,260 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0962-4F29-A23B-2D704A7B5205}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:spPr>
             <a:ln w="28575">
               <a:solidFill>
@@ -456,7 +708,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9505-437E-8E9B-110B3C4D0075}"/>
+              <c16:uniqueId val="{00000004-0962-4F29-A23B-2D704A7B5205}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -734,14 +986,716 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="43000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speech Recognition</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="63500" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.9989258605421155E-3"/>
+                  <c:y val="7.2506390649931626E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$38:$D$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0962-4F29-A23B-2D704A7B5205}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2022268303"/>
+        <c:axId val="2072455327"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2022268303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energy Threshold</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2072455327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2072455327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dynamic Energy Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2022268303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -829,7 +1783,567 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="244">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="43000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="20000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" kern="1200" spc="70" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="63500" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="244">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1382,6 +2896,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>273327</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>162339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>8697</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>129001</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B75F5E-0313-41DF-A6E5-E688BBD10C5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1687,10 +3237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C1322D-C8BF-4374-A7EC-F3F48D38088C}">
-  <dimension ref="C2:E34"/>
+  <dimension ref="C2:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T59" sqref="T59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2091,6 +3641,414 @@
         <v>4500</v>
       </c>
     </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>34</v>
+      </c>
+      <c r="E38">
+        <f>C38*D38</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>17</v>
+      </c>
+      <c r="E39">
+        <f>C39*D39</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <f>C40*D40</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>50</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <f>C41*D41</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>100</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42:E71" si="1">C42*D42</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>200</v>
+      </c>
+      <c r="D43">
+        <v>2.5</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>300</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>400</v>
+      </c>
+      <c r="D45">
+        <v>1.93</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>772</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>500</v>
+      </c>
+      <c r="D46">
+        <v>1.89</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>945</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>600</v>
+      </c>
+      <c r="D47">
+        <v>1.85</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>700</v>
+      </c>
+      <c r="D48">
+        <v>1.8</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>800</v>
+      </c>
+      <c r="D49">
+        <v>1.76</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>900</v>
+      </c>
+      <c r="D50">
+        <v>1.72</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>1000</v>
+      </c>
+      <c r="D51">
+        <v>1.65</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>1100</v>
+      </c>
+      <c r="D52">
+        <v>1.62</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>1782.0000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>1200</v>
+      </c>
+      <c r="D53">
+        <v>1.6</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>1300</v>
+      </c>
+      <c r="D54">
+        <v>1.55</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>1400</v>
+      </c>
+      <c r="D55">
+        <v>1.5</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>1500</v>
+      </c>
+      <c r="D56">
+        <v>1.5</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>1600</v>
+      </c>
+      <c r="D57">
+        <v>1.5</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>1700</v>
+      </c>
+      <c r="D58">
+        <v>1.5</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>1800</v>
+      </c>
+      <c r="D59">
+        <v>1.5</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>1900</v>
+      </c>
+      <c r="D60">
+        <v>1.5</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>2000</v>
+      </c>
+      <c r="D61">
+        <v>1.5</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>2100</v>
+      </c>
+      <c r="D62">
+        <v>1.5</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>2200</v>
+      </c>
+      <c r="D63">
+        <v>1.5</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>2300</v>
+      </c>
+      <c r="D64">
+        <v>1.5</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>2400</v>
+      </c>
+      <c r="D65">
+        <v>1.5</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>2500</v>
+      </c>
+      <c r="D66">
+        <v>1.5</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="1"/>
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>2600</v>
+      </c>
+      <c r="D67">
+        <v>1.5</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="1"/>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>2700</v>
+      </c>
+      <c r="D68">
+        <v>1.5</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>2800</v>
+      </c>
+      <c r="D69">
+        <v>1.5</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>2900</v>
+      </c>
+      <c r="D70">
+        <v>1.5</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>3000</v>
+      </c>
+      <c r="D71">
+        <v>1.5</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Speech Recognition.xlsx
+++ b/Speech Recognition.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tutorial Stuffs\Python Stuffs\Python Projects\optimizedSTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8E88A0-4F4C-467B-A17F-4D3A010D610D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C67DEA-4481-478B-B03A-C0303E5AF2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9ED2CF56-0BD5-4CA8-8E98-77771F1E2FB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,6 +32,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Previous Data</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1318,46 +1329,46 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.93</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.89</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.85</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.8</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.76</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.72</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.65</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.62</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.55</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.5</c:v>
@@ -1417,6 +1428,714 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-0962-4F29-A23B-2D704A7B5205}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2022268303"/>
+        <c:axId val="2072455327"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2022268303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energy Threshold</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2072455327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2072455327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dynamic Energy Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2022268303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="43000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speech Recognition</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="63500" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.9989258605421155E-3"/>
+                  <c:y val="7.2506390649931626E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$38:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$D$38:$D$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-51A7-4517-8944-BBCAE12B8F41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1823,6 +2542,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="244">
   <cs:axisTitle>
@@ -2344,6 +3103,526 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="244">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="43000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="20000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" kern="1200" spc="70" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="63500" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="244">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2937,7 +4216,331 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>306456</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>41827</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>24640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74AC23A2-CC27-42B1-A31A-D43FD1431463}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="C38">
+            <v>10</v>
+          </cell>
+          <cell r="D38">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>20</v>
+          </cell>
+          <cell r="D39">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>30</v>
+          </cell>
+          <cell r="D40">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>50</v>
+          </cell>
+          <cell r="D41">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>100</v>
+          </cell>
+          <cell r="D42">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43">
+            <v>200</v>
+          </cell>
+          <cell r="D43">
+            <v>2.5</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>300</v>
+          </cell>
+          <cell r="D44">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45">
+            <v>400</v>
+          </cell>
+          <cell r="D45">
+            <v>1.93</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46">
+            <v>500</v>
+          </cell>
+          <cell r="D46">
+            <v>1.89</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47">
+            <v>600</v>
+          </cell>
+          <cell r="D47">
+            <v>1.85</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48">
+            <v>700</v>
+          </cell>
+          <cell r="D48">
+            <v>1.8</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49">
+            <v>800</v>
+          </cell>
+          <cell r="D49">
+            <v>1.76</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50">
+            <v>900</v>
+          </cell>
+          <cell r="D50">
+            <v>1.72</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51">
+            <v>1000</v>
+          </cell>
+          <cell r="D51">
+            <v>1.65</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52">
+            <v>1100</v>
+          </cell>
+          <cell r="D52">
+            <v>1.62</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53">
+            <v>1200</v>
+          </cell>
+          <cell r="D53">
+            <v>1.6</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="C54">
+            <v>1300</v>
+          </cell>
+          <cell r="D54">
+            <v>1.55</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="C55">
+            <v>1400</v>
+          </cell>
+          <cell r="D55">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56">
+            <v>1500</v>
+          </cell>
+          <cell r="D56">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57">
+            <v>1600</v>
+          </cell>
+          <cell r="D57">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58">
+            <v>1700</v>
+          </cell>
+          <cell r="D58">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59">
+            <v>1800</v>
+          </cell>
+          <cell r="D59">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60">
+            <v>1900</v>
+          </cell>
+          <cell r="D60">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61">
+            <v>2000</v>
+          </cell>
+          <cell r="D61">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62">
+            <v>2100</v>
+          </cell>
+          <cell r="D62">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63">
+            <v>2200</v>
+          </cell>
+          <cell r="D63">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="C64">
+            <v>2300</v>
+          </cell>
+          <cell r="D64">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="C65">
+            <v>2400</v>
+          </cell>
+          <cell r="D65">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="C66">
+            <v>2500</v>
+          </cell>
+          <cell r="D66">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="C67">
+            <v>2600</v>
+          </cell>
+          <cell r="D67">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="C68">
+            <v>2700</v>
+          </cell>
+          <cell r="D68">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="C69">
+            <v>2800</v>
+          </cell>
+          <cell r="D69">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="C70">
+            <v>2900</v>
+          </cell>
+          <cell r="D70">
+            <v>1.5</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="C71">
+            <v>3000</v>
+          </cell>
+          <cell r="D71">
+            <v>1.5</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3237,10 +4840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C1322D-C8BF-4374-A7EC-F3F48D38088C}">
-  <dimension ref="C2:E71"/>
+  <dimension ref="C2:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T59" sqref="T59"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3682,11 +5285,11 @@
         <v>50</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="E41">
         <f>C41*D41</f>
-        <v>350</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.25">
@@ -3694,11 +5297,11 @@
         <v>100</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="E42">
         <f t="shared" ref="E42:E71" si="1">C42*D42</f>
-        <v>400</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
@@ -3706,11 +5309,11 @@
         <v>200</v>
       </c>
       <c r="D43">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="E43">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.25">
@@ -3718,11 +5321,11 @@
         <v>300</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E44">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
@@ -3730,11 +5333,11 @@
         <v>400</v>
       </c>
       <c r="D45">
-        <v>1.93</v>
+        <v>1.5</v>
       </c>
       <c r="E45">
         <f t="shared" si="1"/>
-        <v>772</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.25">
@@ -3742,11 +5345,11 @@
         <v>500</v>
       </c>
       <c r="D46">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="E46">
         <f t="shared" si="1"/>
-        <v>945</v>
+        <v>750</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
@@ -3754,11 +5357,11 @@
         <v>600</v>
       </c>
       <c r="D47">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="E47">
         <f t="shared" si="1"/>
-        <v>1110</v>
+        <v>900</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.25">
@@ -3766,11 +5369,11 @@
         <v>700</v>
       </c>
       <c r="D48">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="E48">
         <f t="shared" si="1"/>
-        <v>1260</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
@@ -3778,11 +5381,11 @@
         <v>800</v>
       </c>
       <c r="D49">
-        <v>1.76</v>
+        <v>1.5</v>
       </c>
       <c r="E49">
         <f t="shared" si="1"/>
-        <v>1408</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.25">
@@ -3790,11 +5393,11 @@
         <v>900</v>
       </c>
       <c r="D50">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="E50">
         <f t="shared" si="1"/>
-        <v>1548</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
@@ -3802,11 +5405,11 @@
         <v>1000</v>
       </c>
       <c r="D51">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="E51">
         <f t="shared" si="1"/>
-        <v>1650</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.25">
@@ -3814,11 +5417,11 @@
         <v>1100</v>
       </c>
       <c r="D52">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="E52">
         <f t="shared" si="1"/>
-        <v>1782.0000000000002</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
@@ -3826,11 +5429,11 @@
         <v>1200</v>
       </c>
       <c r="D53">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="E53">
         <f t="shared" si="1"/>
-        <v>1920</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.25">
@@ -3838,11 +5441,11 @@
         <v>1300</v>
       </c>
       <c r="D54">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="E54">
         <f t="shared" si="1"/>
-        <v>2015</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
@@ -3965,7 +5568,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C65">
         <v>2400</v>
       </c>
@@ -3977,7 +5580,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>2500</v>
       </c>
@@ -3989,7 +5592,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C67">
         <v>2600</v>
       </c>
@@ -4001,7 +5604,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C68">
         <v>2700</v>
       </c>
@@ -4013,7 +5616,7 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C69">
         <v>2800</v>
       </c>
@@ -4025,7 +5628,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C70">
         <v>2900</v>
       </c>
@@ -4037,7 +5640,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C71">
         <v>3000</v>
       </c>
@@ -4046,6 +5649,1065 @@
       </c>
       <c r="E71">
         <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="J75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <f>49.043*POWER(C76, -0.471)</f>
+        <v>16.579713762049956</v>
+      </c>
+      <c r="E76">
+        <f>22.76*POWER(C76,-0.376)</f>
+        <v>9.5757380620299468</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ref="F76:F109" si="2">C76*D76</f>
+        <v>165.79713762049954</v>
+      </c>
+      <c r="G76">
+        <f>C76*E76</f>
+        <v>95.757380620299472</v>
+      </c>
+      <c r="J76">
+        <v>10</v>
+      </c>
+      <c r="K76">
+        <v>34</v>
+      </c>
+      <c r="L76">
+        <f>J76*K76</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="77" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>20</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ref="D77:D109" si="3">49.043*POWER(C77, -0.471)</f>
+        <v>11.961672303608207</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ref="E77:E109" si="4">22.76*POWER(C77,-0.376)</f>
+        <v>7.378787091808209</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="2"/>
+        <v>239.23344607216416</v>
+      </c>
+      <c r="G77">
+        <f t="shared" ref="G77:G109" si="5">C77*E77</f>
+        <v>147.57574183616418</v>
+      </c>
+      <c r="J77">
+        <v>20</v>
+      </c>
+      <c r="K77">
+        <v>17</v>
+      </c>
+      <c r="L77">
+        <f>J77*K77</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="78" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>30</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="3"/>
+        <v>9.8821835808230478</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="4"/>
+        <v>6.3354091273842412</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="2"/>
+        <v>296.46550742469145</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="5"/>
+        <v>190.06227382152724</v>
+      </c>
+      <c r="J78">
+        <v>30</v>
+      </c>
+      <c r="K78">
+        <v>12</v>
+      </c>
+      <c r="L78">
+        <f>J78*K78</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="79" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>50</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="3"/>
+        <v>7.7689469595346399</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="4"/>
+        <v>5.2282884024982046</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="2"/>
+        <v>388.44734797673198</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="5"/>
+        <v>261.41442012491024</v>
+      </c>
+      <c r="J79">
+        <v>50</v>
+      </c>
+      <c r="K79">
+        <v>7</v>
+      </c>
+      <c r="L79">
+        <f>J79*K79</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>100</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="3"/>
+        <v>5.6050182173094782</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="4"/>
+        <v>4.0287679891304498</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="2"/>
+        <v>560.50182173094777</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="5"/>
+        <v>402.87679891304498</v>
+      </c>
+      <c r="J80">
+        <v>100</v>
+      </c>
+      <c r="K80">
+        <v>4</v>
+      </c>
+      <c r="L80">
+        <f t="shared" ref="L80:L109" si="6">J80*K80</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>200</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="3"/>
+        <v>4.0438207880689365</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="4"/>
+        <v>3.1044522147031262</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="2"/>
+        <v>808.76415761378735</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="5"/>
+        <v>620.89044294062523</v>
+      </c>
+      <c r="J81">
+        <v>200</v>
+      </c>
+      <c r="K81">
+        <v>2.5</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="6"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>300</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="3"/>
+        <v>3.340818773608385</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="4"/>
+        <v>2.6654753216004048</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="2"/>
+        <v>1002.2456320825155</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="5"/>
+        <v>799.64259648012148</v>
+      </c>
+      <c r="J82">
+        <v>300</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="6"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>400</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="3"/>
+        <v>2.9174725098160312</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="4"/>
+        <v>2.3922011839295019</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="2"/>
+        <v>1166.9890039264126</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="5"/>
+        <v>956.88047357180074</v>
+      </c>
+      <c r="J83">
+        <v>400</v>
+      </c>
+      <c r="K83">
+        <v>1.93</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="6"/>
+        <v>772</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>500</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="3"/>
+        <v>2.6264077813680369</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="4"/>
+        <v>2.1996801518045617</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="2"/>
+        <v>1313.2038906840185</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="5"/>
+        <v>1099.8400759022809</v>
+      </c>
+      <c r="J84">
+        <v>500</v>
+      </c>
+      <c r="K84">
+        <v>1.89</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="6"/>
+        <v>945</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>600</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="3"/>
+        <v>2.4102816230227115</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="4"/>
+        <v>2.0539382728676072</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="2"/>
+        <v>1446.168973813627</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="5"/>
+        <v>1232.3629637205643</v>
+      </c>
+      <c r="J85">
+        <v>600</v>
+      </c>
+      <c r="K85">
+        <v>1.85</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="6"/>
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>700</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="3"/>
+        <v>2.2414850758948979</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="4"/>
+        <v>1.9382750019675783</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="2"/>
+        <v>1569.0395531264285</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="5"/>
+        <v>1356.7925013773049</v>
+      </c>
+      <c r="J86">
+        <v>700</v>
+      </c>
+      <c r="K86">
+        <v>1.8</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="6"/>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>800</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="3"/>
+        <v>2.1048523887718726</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="4"/>
+        <v>1.8433611177168514</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="2"/>
+        <v>1683.8819110174982</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="5"/>
+        <v>1474.6888941734812</v>
+      </c>
+      <c r="J87">
+        <v>800</v>
+      </c>
+      <c r="K87">
+        <v>1.76</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="6"/>
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>900</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="3"/>
+        <v>1.991263836329112</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="4"/>
+        <v>1.7635065382839872</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="2"/>
+        <v>1792.1374526962009</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="5"/>
+        <v>1587.1558844555884</v>
+      </c>
+      <c r="J88">
+        <v>900</v>
+      </c>
+      <c r="K88">
+        <v>1.72</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="6"/>
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>1000</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="3"/>
+        <v>1.8948595655662721</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="4"/>
+        <v>1.6950099726100316</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="2"/>
+        <v>1894.8595655662721</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="5"/>
+        <v>1695.0099726100316</v>
+      </c>
+      <c r="J89">
+        <v>1000</v>
+      </c>
+      <c r="K89">
+        <v>1.65</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="6"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>1100</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="3"/>
+        <v>1.8116782637523761</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="4"/>
+        <v>1.6353420653599988</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="2"/>
+        <v>1992.8460901276137</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="5"/>
+        <v>1798.8762718959988</v>
+      </c>
+      <c r="J90">
+        <v>1100</v>
+      </c>
+      <c r="K90">
+        <v>1.62</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="6"/>
+        <v>1782.0000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>1200</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="3"/>
+        <v>1.7389322486374377</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="4"/>
+        <v>1.5827054914233458</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="2"/>
+        <v>2086.7186983649253</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="5"/>
+        <v>1899.2465897080149</v>
+      </c>
+      <c r="J91">
+        <v>1200</v>
+      </c>
+      <c r="K91">
+        <v>1.6</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="6"/>
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>1300</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="3"/>
+        <v>1.6745946891071046</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="4"/>
+        <v>1.5357819437159324</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="2"/>
+        <v>2176.9730958392361</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="5"/>
+        <v>1996.5165268307121</v>
+      </c>
+      <c r="J92">
+        <v>1300</v>
+      </c>
+      <c r="K92">
+        <v>1.55</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="6"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>1400</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="3"/>
+        <v>1.617151558590481</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="4"/>
+        <v>1.493578716569552</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="2"/>
+        <v>2264.0121820266736</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="5"/>
+        <v>2091.0102031973729</v>
+      </c>
+      <c r="J93">
+        <v>1400</v>
+      </c>
+      <c r="K93">
+        <v>1.5</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="6"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>1500</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="3"/>
+        <v>1.5654458349570448</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="4"/>
+        <v>1.4553315494632817</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="2"/>
+        <v>2348.1687524355671</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="5"/>
+        <v>2182.9973241949224</v>
+      </c>
+      <c r="J94">
+        <v>1500</v>
+      </c>
+      <c r="K94">
+        <v>1.5</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="6"/>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>1600</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="3"/>
+        <v>1.5185759466840798</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="4"/>
+        <v>1.4204408195838676</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="2"/>
+        <v>2429.7215146945277</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="5"/>
+        <v>2272.7053113341881</v>
+      </c>
+      <c r="J95">
+        <v>1600</v>
+      </c>
+      <c r="K95">
+        <v>1.5</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="6"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>1700</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="3"/>
+        <v>1.4758274590127689</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="4"/>
+        <v>1.3884283194224918</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="2"/>
+        <v>2508.906680321707</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="5"/>
+        <v>2360.328143018236</v>
+      </c>
+      <c r="J96">
+        <v>1700</v>
+      </c>
+      <c r="K96">
+        <v>1.5</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="6"/>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>1800</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="3"/>
+        <v>1.436625856274707</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="4"/>
+        <v>1.3589071878027907</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="2"/>
+        <v>2585.9265412944724</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="5"/>
+        <v>2446.0329380450235</v>
+      </c>
+      <c r="J97">
+        <v>1800</v>
+      </c>
+      <c r="K97">
+        <v>1.5</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="6"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>1900</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="3"/>
+        <v>1.4005031256428131</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="4"/>
+        <v>1.331560500591076</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="2"/>
+        <v>2660.9559387213449</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="5"/>
+        <v>2529.9649511230446</v>
+      </c>
+      <c r="J98">
+        <v>1900</v>
+      </c>
+      <c r="K98">
+        <v>1.5</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="6"/>
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>2000</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="3"/>
+        <v>1.3670736123648681</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="4"/>
+        <v>1.3061257132726662</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="2"/>
+        <v>2734.1472247297361</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="5"/>
+        <v>2612.2514265453324</v>
+      </c>
+      <c r="J99">
+        <v>2000</v>
+      </c>
+      <c r="K99">
+        <v>1.5</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>2100</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="3"/>
+        <v>1.3360162504355375</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="4"/>
+        <v>1.2823831499253573</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="2"/>
+        <v>2805.6341259146288</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="5"/>
+        <v>2693.0046148432502</v>
+      </c>
+      <c r="J100">
+        <v>2100</v>
+      </c>
+      <c r="K100">
+        <v>1.5</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="6"/>
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>2200</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="3"/>
+        <v>1.3070612690659853</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="4"/>
+        <v>1.2601473478495819</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="2"/>
+        <v>2875.5347919451679</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="5"/>
+        <v>2772.3241652690804</v>
+      </c>
+      <c r="J101">
+        <v>2200</v>
+      </c>
+      <c r="K101">
+        <v>1.5</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="6"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>2300</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="3"/>
+        <v>1.2799801000890398</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="4"/>
+        <v>1.2392604546281243</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="2"/>
+        <v>2943.9542302047917</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="5"/>
+        <v>2850.299045644686</v>
+      </c>
+      <c r="J102">
+        <v>2300</v>
+      </c>
+      <c r="K102">
+        <v>1.5</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="6"/>
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="103" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>2400</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="3"/>
+        <v>1.2545776130338777</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="4"/>
+        <v>1.2195871247310259</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="2"/>
+        <v>3010.9862712813065</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="5"/>
+        <v>2927.0090993544623</v>
+      </c>
+      <c r="J103">
+        <v>2400</v>
+      </c>
+      <c r="K103">
+        <v>1.5</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="6"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="104" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>2500</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="3"/>
+        <v>1.2306860685533618</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="4"/>
+        <v>1.2010105281062051</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="2"/>
+        <v>3076.7151713834046</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="5"/>
+        <v>3002.5263202655128</v>
+      </c>
+      <c r="J104">
+        <v>2500</v>
+      </c>
+      <c r="K104">
+        <v>1.5</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="6"/>
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="105" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>2600</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="3"/>
+        <v>1.2081603578893858</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="4"/>
+        <v>1.1834291945660158</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="2"/>
+        <v>3141.216930512403</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="5"/>
+        <v>3076.9159058716409</v>
+      </c>
+      <c r="J105">
+        <v>2600</v>
+      </c>
+      <c r="K105">
+        <v>1.5</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="6"/>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="106" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>2700</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="3"/>
+        <v>1.1868742169421642</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="4"/>
+        <v>1.1667544941677017</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="2"/>
+        <v>3204.5603857438432</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="5"/>
+        <v>3150.2371342527945</v>
+      </c>
+      <c r="J106">
+        <v>2700</v>
+      </c>
+      <c r="K106">
+        <v>1.5</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="6"/>
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="107" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>2800</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="3"/>
+        <v>1.1667171874465989</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="4"/>
+        <v>1.1509086070475278</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="2"/>
+        <v>3266.8081248504768</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="5"/>
+        <v>3222.5440997330779</v>
+      </c>
+      <c r="J107">
+        <v>2800</v>
+      </c>
+      <c r="K107">
+        <v>1.5</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="6"/>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="108" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>2900</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="3"/>
+        <v>1.1475921569372567</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="4"/>
+        <v>1.1358228738685736</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="2"/>
+        <v>3328.0172551180444</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="5"/>
+        <v>3293.8863342188633</v>
+      </c>
+      <c r="J108">
+        <v>2900</v>
+      </c>
+      <c r="K108">
+        <v>1.5</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="6"/>
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="109" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>3000</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="3"/>
+        <v>1.1294133514937872</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="4"/>
+        <v>1.1214364450988803</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="2"/>
+        <v>3388.2400544813618</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="5"/>
+        <v>3364.3093352966407</v>
+      </c>
+      <c r="J109">
+        <v>3000</v>
+      </c>
+      <c r="K109">
+        <v>1.5</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="6"/>
         <v>4500</v>
       </c>
     </row>

--- a/Speech Recognition.xlsx
+++ b/Speech Recognition.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tutorial Stuffs\Python Stuffs\Python Projects\optimizedSTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C67DEA-4481-478B-B03A-C0303E5AF2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC303323-5113-4AE9-9A99-F7A6CEF71173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9ED2CF56-0BD5-4CA8-8E98-77771F1E2FB7}"/>
   </bookViews>
@@ -4842,8 +4842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C1322D-C8BF-4374-A7EC-F3F48D38088C}">
   <dimension ref="C2:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5662,20 +5662,20 @@
         <v>10</v>
       </c>
       <c r="D76">
+        <f>22.76*POWER(C76,-0.376)</f>
+        <v>9.5757380620299468</v>
+      </c>
+      <c r="E76">
+        <f>C76*D76</f>
+        <v>95.757380620299472</v>
+      </c>
+      <c r="F76">
         <f>49.043*POWER(C76, -0.471)</f>
         <v>16.579713762049956</v>
       </c>
-      <c r="E76">
-        <f>22.76*POWER(C76,-0.376)</f>
-        <v>9.5757380620299468</v>
-      </c>
-      <c r="F76">
-        <f t="shared" ref="F76:F109" si="2">C76*D76</f>
+      <c r="G76">
+        <f>C76*F76</f>
         <v>165.79713762049954</v>
-      </c>
-      <c r="G76">
-        <f>C76*E76</f>
-        <v>95.757380620299472</v>
       </c>
       <c r="J76">
         <v>10</v>
@@ -5693,20 +5693,20 @@
         <v>20</v>
       </c>
       <c r="D77">
-        <f t="shared" ref="D77:D109" si="3">49.043*POWER(C77, -0.471)</f>
+        <f>22.76*POWER(C77,-0.376)</f>
+        <v>7.378787091808209</v>
+      </c>
+      <c r="E77">
+        <f>C77*D77</f>
+        <v>147.57574183616418</v>
+      </c>
+      <c r="F77">
+        <f>49.043*POWER(C77, -0.471)</f>
         <v>11.961672303608207</v>
       </c>
-      <c r="E77">
-        <f t="shared" ref="E77:E109" si="4">22.76*POWER(C77,-0.376)</f>
-        <v>7.378787091808209</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="2"/>
+      <c r="G77">
+        <f>C77*F77</f>
         <v>239.23344607216416</v>
-      </c>
-      <c r="G77">
-        <f t="shared" ref="G77:G109" si="5">C77*E77</f>
-        <v>147.57574183616418</v>
       </c>
       <c r="J77">
         <v>20</v>
@@ -5724,20 +5724,20 @@
         <v>30</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C78,-0.376)</f>
+        <v>6.3354091273842412</v>
+      </c>
+      <c r="E78">
+        <f>C78*D78</f>
+        <v>190.06227382152724</v>
+      </c>
+      <c r="F78">
+        <f>49.043*POWER(C78, -0.471)</f>
         <v>9.8821835808230478</v>
       </c>
-      <c r="E78">
-        <f t="shared" si="4"/>
-        <v>6.3354091273842412</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="2"/>
+      <c r="G78">
+        <f>C78*F78</f>
         <v>296.46550742469145</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="5"/>
-        <v>190.06227382152724</v>
       </c>
       <c r="J78">
         <v>30</v>
@@ -5755,20 +5755,20 @@
         <v>50</v>
       </c>
       <c r="D79">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C79,-0.376)</f>
+        <v>5.2282884024982046</v>
+      </c>
+      <c r="E79">
+        <f>C79*D79</f>
+        <v>261.41442012491024</v>
+      </c>
+      <c r="F79">
+        <f>49.043*POWER(C79, -0.471)</f>
         <v>7.7689469595346399</v>
       </c>
-      <c r="E79">
-        <f t="shared" si="4"/>
-        <v>5.2282884024982046</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="2"/>
+      <c r="G79">
+        <f>C79*F79</f>
         <v>388.44734797673198</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="5"/>
-        <v>261.41442012491024</v>
       </c>
       <c r="J79">
         <v>50</v>
@@ -5786,20 +5786,20 @@
         <v>100</v>
       </c>
       <c r="D80">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C80,-0.376)</f>
+        <v>4.0287679891304498</v>
+      </c>
+      <c r="E80">
+        <f>C80*D80</f>
+        <v>402.87679891304498</v>
+      </c>
+      <c r="F80">
+        <f>49.043*POWER(C80, -0.471)</f>
         <v>5.6050182173094782</v>
       </c>
-      <c r="E80">
-        <f t="shared" si="4"/>
-        <v>4.0287679891304498</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="2"/>
+      <c r="G80">
+        <f>C80*F80</f>
         <v>560.50182173094777</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="5"/>
-        <v>402.87679891304498</v>
       </c>
       <c r="J80">
         <v>100</v>
@@ -5808,7 +5808,7 @@
         <v>4</v>
       </c>
       <c r="L80">
-        <f t="shared" ref="L80:L109" si="6">J80*K80</f>
+        <f t="shared" ref="L80:L109" si="2">J80*K80</f>
         <v>400</v>
       </c>
     </row>
@@ -5817,20 +5817,20 @@
         <v>200</v>
       </c>
       <c r="D81">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C81,-0.376)</f>
+        <v>3.1044522147031262</v>
+      </c>
+      <c r="E81">
+        <f>C81*D81</f>
+        <v>620.89044294062523</v>
+      </c>
+      <c r="F81">
+        <f>49.043*POWER(C81, -0.471)</f>
         <v>4.0438207880689365</v>
       </c>
-      <c r="E81">
-        <f t="shared" si="4"/>
-        <v>3.1044522147031262</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="2"/>
+      <c r="G81">
+        <f>C81*F81</f>
         <v>808.76415761378735</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="5"/>
-        <v>620.89044294062523</v>
       </c>
       <c r="J81">
         <v>200</v>
@@ -5839,7 +5839,7 @@
         <v>2.5</v>
       </c>
       <c r="L81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
     </row>
@@ -5848,20 +5848,20 @@
         <v>300</v>
       </c>
       <c r="D82">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C82,-0.376)</f>
+        <v>2.6654753216004048</v>
+      </c>
+      <c r="E82">
+        <f>C82*D82</f>
+        <v>799.64259648012148</v>
+      </c>
+      <c r="F82">
+        <f>49.043*POWER(C82, -0.471)</f>
         <v>3.340818773608385</v>
       </c>
-      <c r="E82">
-        <f t="shared" si="4"/>
-        <v>2.6654753216004048</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="2"/>
+      <c r="G82">
+        <f>C82*F82</f>
         <v>1002.2456320825155</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="5"/>
-        <v>799.64259648012148</v>
       </c>
       <c r="J82">
         <v>300</v>
@@ -5870,7 +5870,7 @@
         <v>2</v>
       </c>
       <c r="L82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
     </row>
@@ -5879,20 +5879,20 @@
         <v>400</v>
       </c>
       <c r="D83">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C83,-0.376)</f>
+        <v>2.3922011839295019</v>
+      </c>
+      <c r="E83">
+        <f>C83*D83</f>
+        <v>956.88047357180074</v>
+      </c>
+      <c r="F83">
+        <f>49.043*POWER(C83, -0.471)</f>
         <v>2.9174725098160312</v>
       </c>
-      <c r="E83">
-        <f t="shared" si="4"/>
-        <v>2.3922011839295019</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="2"/>
+      <c r="G83">
+        <f>C83*F83</f>
         <v>1166.9890039264126</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="5"/>
-        <v>956.88047357180074</v>
       </c>
       <c r="J83">
         <v>400</v>
@@ -5901,7 +5901,7 @@
         <v>1.93</v>
       </c>
       <c r="L83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>772</v>
       </c>
     </row>
@@ -5910,20 +5910,20 @@
         <v>500</v>
       </c>
       <c r="D84">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C84,-0.376)</f>
+        <v>2.1996801518045617</v>
+      </c>
+      <c r="E84">
+        <f>C84*D84</f>
+        <v>1099.8400759022809</v>
+      </c>
+      <c r="F84">
+        <f>49.043*POWER(C84, -0.471)</f>
         <v>2.6264077813680369</v>
       </c>
-      <c r="E84">
-        <f t="shared" si="4"/>
-        <v>2.1996801518045617</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="2"/>
+      <c r="G84">
+        <f>C84*F84</f>
         <v>1313.2038906840185</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="5"/>
-        <v>1099.8400759022809</v>
       </c>
       <c r="J84">
         <v>500</v>
@@ -5932,7 +5932,7 @@
         <v>1.89</v>
       </c>
       <c r="L84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>945</v>
       </c>
     </row>
@@ -5941,20 +5941,20 @@
         <v>600</v>
       </c>
       <c r="D85">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C85,-0.376)</f>
+        <v>2.0539382728676072</v>
+      </c>
+      <c r="E85">
+        <f>C85*D85</f>
+        <v>1232.3629637205643</v>
+      </c>
+      <c r="F85">
+        <f>49.043*POWER(C85, -0.471)</f>
         <v>2.4102816230227115</v>
       </c>
-      <c r="E85">
-        <f t="shared" si="4"/>
-        <v>2.0539382728676072</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="2"/>
+      <c r="G85">
+        <f>C85*F85</f>
         <v>1446.168973813627</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="5"/>
-        <v>1232.3629637205643</v>
       </c>
       <c r="J85">
         <v>600</v>
@@ -5963,7 +5963,7 @@
         <v>1.85</v>
       </c>
       <c r="L85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>1110</v>
       </c>
     </row>
@@ -5972,20 +5972,20 @@
         <v>700</v>
       </c>
       <c r="D86">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C86,-0.376)</f>
+        <v>1.9382750019675783</v>
+      </c>
+      <c r="E86">
+        <f>C86*D86</f>
+        <v>1356.7925013773049</v>
+      </c>
+      <c r="F86">
+        <f>49.043*POWER(C86, -0.471)</f>
         <v>2.2414850758948979</v>
       </c>
-      <c r="E86">
-        <f t="shared" si="4"/>
-        <v>1.9382750019675783</v>
-      </c>
-      <c r="F86">
-        <f t="shared" si="2"/>
+      <c r="G86">
+        <f>C86*F86</f>
         <v>1569.0395531264285</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="5"/>
-        <v>1356.7925013773049</v>
       </c>
       <c r="J86">
         <v>700</v>
@@ -5994,7 +5994,7 @@
         <v>1.8</v>
       </c>
       <c r="L86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>1260</v>
       </c>
     </row>
@@ -6003,20 +6003,20 @@
         <v>800</v>
       </c>
       <c r="D87">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C87,-0.376)</f>
+        <v>1.8433611177168514</v>
+      </c>
+      <c r="E87">
+        <f>C87*D87</f>
+        <v>1474.6888941734812</v>
+      </c>
+      <c r="F87">
+        <f>49.043*POWER(C87, -0.471)</f>
         <v>2.1048523887718726</v>
       </c>
-      <c r="E87">
-        <f t="shared" si="4"/>
-        <v>1.8433611177168514</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="2"/>
+      <c r="G87">
+        <f>C87*F87</f>
         <v>1683.8819110174982</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="5"/>
-        <v>1474.6888941734812</v>
       </c>
       <c r="J87">
         <v>800</v>
@@ -6025,7 +6025,7 @@
         <v>1.76</v>
       </c>
       <c r="L87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>1408</v>
       </c>
     </row>
@@ -6034,20 +6034,20 @@
         <v>900</v>
       </c>
       <c r="D88">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C88,-0.376)</f>
+        <v>1.7635065382839872</v>
+      </c>
+      <c r="E88">
+        <f>C88*D88</f>
+        <v>1587.1558844555884</v>
+      </c>
+      <c r="F88">
+        <f>49.043*POWER(C88, -0.471)</f>
         <v>1.991263836329112</v>
       </c>
-      <c r="E88">
-        <f t="shared" si="4"/>
-        <v>1.7635065382839872</v>
-      </c>
-      <c r="F88">
-        <f t="shared" si="2"/>
+      <c r="G88">
+        <f>C88*F88</f>
         <v>1792.1374526962009</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="5"/>
-        <v>1587.1558844555884</v>
       </c>
       <c r="J88">
         <v>900</v>
@@ -6056,7 +6056,7 @@
         <v>1.72</v>
       </c>
       <c r="L88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>1548</v>
       </c>
     </row>
@@ -6065,20 +6065,20 @@
         <v>1000</v>
       </c>
       <c r="D89">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C89,-0.376)</f>
+        <v>1.6950099726100316</v>
+      </c>
+      <c r="E89">
+        <f>C89*D89</f>
+        <v>1695.0099726100316</v>
+      </c>
+      <c r="F89">
+        <f>49.043*POWER(C89, -0.471)</f>
         <v>1.8948595655662721</v>
       </c>
-      <c r="E89">
-        <f t="shared" si="4"/>
-        <v>1.6950099726100316</v>
-      </c>
-      <c r="F89">
-        <f t="shared" si="2"/>
+      <c r="G89">
+        <f>C89*F89</f>
         <v>1894.8595655662721</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="5"/>
-        <v>1695.0099726100316</v>
       </c>
       <c r="J89">
         <v>1000</v>
@@ -6087,7 +6087,7 @@
         <v>1.65</v>
       </c>
       <c r="L89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>1650</v>
       </c>
     </row>
@@ -6096,20 +6096,20 @@
         <v>1100</v>
       </c>
       <c r="D90">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C90,-0.376)</f>
+        <v>1.6353420653599988</v>
+      </c>
+      <c r="E90">
+        <f>C90*D90</f>
+        <v>1798.8762718959988</v>
+      </c>
+      <c r="F90">
+        <f>49.043*POWER(C90, -0.471)</f>
         <v>1.8116782637523761</v>
       </c>
-      <c r="E90">
-        <f t="shared" si="4"/>
-        <v>1.6353420653599988</v>
-      </c>
-      <c r="F90">
-        <f t="shared" si="2"/>
+      <c r="G90">
+        <f>C90*F90</f>
         <v>1992.8460901276137</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="5"/>
-        <v>1798.8762718959988</v>
       </c>
       <c r="J90">
         <v>1100</v>
@@ -6118,7 +6118,7 @@
         <v>1.62</v>
       </c>
       <c r="L90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>1782.0000000000002</v>
       </c>
     </row>
@@ -6127,20 +6127,20 @@
         <v>1200</v>
       </c>
       <c r="D91">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C91,-0.376)</f>
+        <v>1.5827054914233458</v>
+      </c>
+      <c r="E91">
+        <f>C91*D91</f>
+        <v>1899.2465897080149</v>
+      </c>
+      <c r="F91">
+        <f>49.043*POWER(C91, -0.471)</f>
         <v>1.7389322486374377</v>
       </c>
-      <c r="E91">
-        <f t="shared" si="4"/>
-        <v>1.5827054914233458</v>
-      </c>
-      <c r="F91">
-        <f t="shared" si="2"/>
+      <c r="G91">
+        <f>C91*F91</f>
         <v>2086.7186983649253</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="5"/>
-        <v>1899.2465897080149</v>
       </c>
       <c r="J91">
         <v>1200</v>
@@ -6149,7 +6149,7 @@
         <v>1.6</v>
       </c>
       <c r="L91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>1920</v>
       </c>
     </row>
@@ -6158,20 +6158,20 @@
         <v>1300</v>
       </c>
       <c r="D92">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C92,-0.376)</f>
+        <v>1.5357819437159324</v>
+      </c>
+      <c r="E92">
+        <f>C92*D92</f>
+        <v>1996.5165268307121</v>
+      </c>
+      <c r="F92">
+        <f>49.043*POWER(C92, -0.471)</f>
         <v>1.6745946891071046</v>
       </c>
-      <c r="E92">
-        <f t="shared" si="4"/>
-        <v>1.5357819437159324</v>
-      </c>
-      <c r="F92">
-        <f t="shared" si="2"/>
+      <c r="G92">
+        <f>C92*F92</f>
         <v>2176.9730958392361</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="5"/>
-        <v>1996.5165268307121</v>
       </c>
       <c r="J92">
         <v>1300</v>
@@ -6180,7 +6180,7 @@
         <v>1.55</v>
       </c>
       <c r="L92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2015</v>
       </c>
     </row>
@@ -6189,20 +6189,20 @@
         <v>1400</v>
       </c>
       <c r="D93">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C93,-0.376)</f>
+        <v>1.493578716569552</v>
+      </c>
+      <c r="E93">
+        <f>C93*D93</f>
+        <v>2091.0102031973729</v>
+      </c>
+      <c r="F93">
+        <f>49.043*POWER(C93, -0.471)</f>
         <v>1.617151558590481</v>
       </c>
-      <c r="E93">
-        <f t="shared" si="4"/>
-        <v>1.493578716569552</v>
-      </c>
-      <c r="F93">
-        <f t="shared" si="2"/>
+      <c r="G93">
+        <f>C93*F93</f>
         <v>2264.0121820266736</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="5"/>
-        <v>2091.0102031973729</v>
       </c>
       <c r="J93">
         <v>1400</v>
@@ -6211,7 +6211,7 @@
         <v>1.5</v>
       </c>
       <c r="L93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2100</v>
       </c>
     </row>
@@ -6220,20 +6220,20 @@
         <v>1500</v>
       </c>
       <c r="D94">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C94,-0.376)</f>
+        <v>1.4553315494632817</v>
+      </c>
+      <c r="E94">
+        <f>C94*D94</f>
+        <v>2182.9973241949224</v>
+      </c>
+      <c r="F94">
+        <f>49.043*POWER(C94, -0.471)</f>
         <v>1.5654458349570448</v>
       </c>
-      <c r="E94">
-        <f t="shared" si="4"/>
-        <v>1.4553315494632817</v>
-      </c>
-      <c r="F94">
-        <f t="shared" si="2"/>
+      <c r="G94">
+        <f>C94*F94</f>
         <v>2348.1687524355671</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="5"/>
-        <v>2182.9973241949224</v>
       </c>
       <c r="J94">
         <v>1500</v>
@@ -6242,7 +6242,7 @@
         <v>1.5</v>
       </c>
       <c r="L94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2250</v>
       </c>
     </row>
@@ -6251,20 +6251,20 @@
         <v>1600</v>
       </c>
       <c r="D95">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C95,-0.376)</f>
+        <v>1.4204408195838676</v>
+      </c>
+      <c r="E95">
+        <f>C95*D95</f>
+        <v>2272.7053113341881</v>
+      </c>
+      <c r="F95">
+        <f>49.043*POWER(C95, -0.471)</f>
         <v>1.5185759466840798</v>
       </c>
-      <c r="E95">
-        <f t="shared" si="4"/>
-        <v>1.4204408195838676</v>
-      </c>
-      <c r="F95">
-        <f t="shared" si="2"/>
+      <c r="G95">
+        <f>C95*F95</f>
         <v>2429.7215146945277</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="5"/>
-        <v>2272.7053113341881</v>
       </c>
       <c r="J95">
         <v>1600</v>
@@ -6273,7 +6273,7 @@
         <v>1.5</v>
       </c>
       <c r="L95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2400</v>
       </c>
     </row>
@@ -6282,20 +6282,20 @@
         <v>1700</v>
       </c>
       <c r="D96">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C96,-0.376)</f>
+        <v>1.3884283194224918</v>
+      </c>
+      <c r="E96">
+        <f>C96*D96</f>
+        <v>2360.328143018236</v>
+      </c>
+      <c r="F96">
+        <f>49.043*POWER(C96, -0.471)</f>
         <v>1.4758274590127689</v>
       </c>
-      <c r="E96">
-        <f t="shared" si="4"/>
-        <v>1.3884283194224918</v>
-      </c>
-      <c r="F96">
-        <f t="shared" si="2"/>
+      <c r="G96">
+        <f>C96*F96</f>
         <v>2508.906680321707</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="5"/>
-        <v>2360.328143018236</v>
       </c>
       <c r="J96">
         <v>1700</v>
@@ -6304,7 +6304,7 @@
         <v>1.5</v>
       </c>
       <c r="L96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2550</v>
       </c>
     </row>
@@ -6313,20 +6313,20 @@
         <v>1800</v>
       </c>
       <c r="D97">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C97,-0.376)</f>
+        <v>1.3589071878027907</v>
+      </c>
+      <c r="E97">
+        <f>C97*D97</f>
+        <v>2446.0329380450235</v>
+      </c>
+      <c r="F97">
+        <f>49.043*POWER(C97, -0.471)</f>
         <v>1.436625856274707</v>
       </c>
-      <c r="E97">
-        <f t="shared" si="4"/>
-        <v>1.3589071878027907</v>
-      </c>
-      <c r="F97">
-        <f t="shared" si="2"/>
+      <c r="G97">
+        <f>C97*F97</f>
         <v>2585.9265412944724</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="5"/>
-        <v>2446.0329380450235</v>
       </c>
       <c r="J97">
         <v>1800</v>
@@ -6335,7 +6335,7 @@
         <v>1.5</v>
       </c>
       <c r="L97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2700</v>
       </c>
     </row>
@@ -6344,20 +6344,20 @@
         <v>1900</v>
       </c>
       <c r="D98">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C98,-0.376)</f>
+        <v>1.331560500591076</v>
+      </c>
+      <c r="E98">
+        <f>C98*D98</f>
+        <v>2529.9649511230446</v>
+      </c>
+      <c r="F98">
+        <f>49.043*POWER(C98, -0.471)</f>
         <v>1.4005031256428131</v>
       </c>
-      <c r="E98">
-        <f t="shared" si="4"/>
-        <v>1.331560500591076</v>
-      </c>
-      <c r="F98">
-        <f t="shared" si="2"/>
+      <c r="G98">
+        <f>C98*F98</f>
         <v>2660.9559387213449</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="5"/>
-        <v>2529.9649511230446</v>
       </c>
       <c r="J98">
         <v>1900</v>
@@ -6366,7 +6366,7 @@
         <v>1.5</v>
       </c>
       <c r="L98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2850</v>
       </c>
     </row>
@@ -6375,20 +6375,20 @@
         <v>2000</v>
       </c>
       <c r="D99">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C99,-0.376)</f>
+        <v>1.3061257132726662</v>
+      </c>
+      <c r="E99">
+        <f>C99*D99</f>
+        <v>2612.2514265453324</v>
+      </c>
+      <c r="F99">
+        <f>49.043*POWER(C99, -0.471)</f>
         <v>1.3670736123648681</v>
       </c>
-      <c r="E99">
-        <f t="shared" si="4"/>
-        <v>1.3061257132726662</v>
-      </c>
-      <c r="F99">
-        <f t="shared" si="2"/>
+      <c r="G99">
+        <f>C99*F99</f>
         <v>2734.1472247297361</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="5"/>
-        <v>2612.2514265453324</v>
       </c>
       <c r="J99">
         <v>2000</v>
@@ -6397,7 +6397,7 @@
         <v>1.5</v>
       </c>
       <c r="L99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
     </row>
@@ -6406,20 +6406,20 @@
         <v>2100</v>
       </c>
       <c r="D100">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C100,-0.376)</f>
+        <v>1.2823831499253573</v>
+      </c>
+      <c r="E100">
+        <f>C100*D100</f>
+        <v>2693.0046148432502</v>
+      </c>
+      <c r="F100">
+        <f>49.043*POWER(C100, -0.471)</f>
         <v>1.3360162504355375</v>
       </c>
-      <c r="E100">
-        <f t="shared" si="4"/>
-        <v>1.2823831499253573</v>
-      </c>
-      <c r="F100">
-        <f t="shared" si="2"/>
+      <c r="G100">
+        <f>C100*F100</f>
         <v>2805.6341259146288</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="5"/>
-        <v>2693.0046148432502</v>
       </c>
       <c r="J100">
         <v>2100</v>
@@ -6428,7 +6428,7 @@
         <v>1.5</v>
       </c>
       <c r="L100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3150</v>
       </c>
     </row>
@@ -6437,20 +6437,20 @@
         <v>2200</v>
       </c>
       <c r="D101">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C101,-0.376)</f>
+        <v>1.2601473478495819</v>
+      </c>
+      <c r="E101">
+        <f>C101*D101</f>
+        <v>2772.3241652690804</v>
+      </c>
+      <c r="F101">
+        <f>49.043*POWER(C101, -0.471)</f>
         <v>1.3070612690659853</v>
       </c>
-      <c r="E101">
-        <f t="shared" si="4"/>
-        <v>1.2601473478495819</v>
-      </c>
-      <c r="F101">
-        <f t="shared" si="2"/>
+      <c r="G101">
+        <f>C101*F101</f>
         <v>2875.5347919451679</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="5"/>
-        <v>2772.3241652690804</v>
       </c>
       <c r="J101">
         <v>2200</v>
@@ -6459,7 +6459,7 @@
         <v>1.5</v>
       </c>
       <c r="L101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3300</v>
       </c>
     </row>
@@ -6468,20 +6468,20 @@
         <v>2300</v>
       </c>
       <c r="D102">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C102,-0.376)</f>
+        <v>1.2392604546281243</v>
+      </c>
+      <c r="E102">
+        <f>C102*D102</f>
+        <v>2850.299045644686</v>
+      </c>
+      <c r="F102">
+        <f>49.043*POWER(C102, -0.471)</f>
         <v>1.2799801000890398</v>
       </c>
-      <c r="E102">
-        <f t="shared" si="4"/>
-        <v>1.2392604546281243</v>
-      </c>
-      <c r="F102">
-        <f t="shared" si="2"/>
+      <c r="G102">
+        <f>C102*F102</f>
         <v>2943.9542302047917</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="5"/>
-        <v>2850.299045644686</v>
       </c>
       <c r="J102">
         <v>2300</v>
@@ -6490,7 +6490,7 @@
         <v>1.5</v>
       </c>
       <c r="L102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3450</v>
       </c>
     </row>
@@ -6499,20 +6499,20 @@
         <v>2400</v>
       </c>
       <c r="D103">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C103,-0.376)</f>
+        <v>1.2195871247310259</v>
+      </c>
+      <c r="E103">
+        <f>C103*D103</f>
+        <v>2927.0090993544623</v>
+      </c>
+      <c r="F103">
+        <f>49.043*POWER(C103, -0.471)</f>
         <v>1.2545776130338777</v>
       </c>
-      <c r="E103">
-        <f t="shared" si="4"/>
-        <v>1.2195871247310259</v>
-      </c>
-      <c r="F103">
-        <f t="shared" si="2"/>
+      <c r="G103">
+        <f>C103*F103</f>
         <v>3010.9862712813065</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="5"/>
-        <v>2927.0090993544623</v>
       </c>
       <c r="J103">
         <v>2400</v>
@@ -6521,7 +6521,7 @@
         <v>1.5</v>
       </c>
       <c r="L103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3600</v>
       </c>
     </row>
@@ -6530,20 +6530,20 @@
         <v>2500</v>
       </c>
       <c r="D104">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C104,-0.376)</f>
+        <v>1.2010105281062051</v>
+      </c>
+      <c r="E104">
+        <f>C104*D104</f>
+        <v>3002.5263202655128</v>
+      </c>
+      <c r="F104">
+        <f>49.043*POWER(C104, -0.471)</f>
         <v>1.2306860685533618</v>
       </c>
-      <c r="E104">
-        <f t="shared" si="4"/>
-        <v>1.2010105281062051</v>
-      </c>
-      <c r="F104">
-        <f t="shared" si="2"/>
+      <c r="G104">
+        <f>C104*F104</f>
         <v>3076.7151713834046</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="5"/>
-        <v>3002.5263202655128</v>
       </c>
       <c r="J104">
         <v>2500</v>
@@ -6552,7 +6552,7 @@
         <v>1.5</v>
       </c>
       <c r="L104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3750</v>
       </c>
     </row>
@@ -6561,20 +6561,20 @@
         <v>2600</v>
       </c>
       <c r="D105">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C105,-0.376)</f>
+        <v>1.1834291945660158</v>
+      </c>
+      <c r="E105">
+        <f>C105*D105</f>
+        <v>3076.9159058716409</v>
+      </c>
+      <c r="F105">
+        <f>49.043*POWER(C105, -0.471)</f>
         <v>1.2081603578893858</v>
       </c>
-      <c r="E105">
-        <f t="shared" si="4"/>
-        <v>1.1834291945660158</v>
-      </c>
-      <c r="F105">
-        <f t="shared" si="2"/>
+      <c r="G105">
+        <f>C105*F105</f>
         <v>3141.216930512403</v>
-      </c>
-      <c r="G105">
-        <f t="shared" si="5"/>
-        <v>3076.9159058716409</v>
       </c>
       <c r="J105">
         <v>2600</v>
@@ -6583,7 +6583,7 @@
         <v>1.5</v>
       </c>
       <c r="L105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3900</v>
       </c>
     </row>
@@ -6592,20 +6592,20 @@
         <v>2700</v>
       </c>
       <c r="D106">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C106,-0.376)</f>
+        <v>1.1667544941677017</v>
+      </c>
+      <c r="E106">
+        <f>C106*D106</f>
+        <v>3150.2371342527945</v>
+      </c>
+      <c r="F106">
+        <f>49.043*POWER(C106, -0.471)</f>
         <v>1.1868742169421642</v>
       </c>
-      <c r="E106">
-        <f t="shared" si="4"/>
-        <v>1.1667544941677017</v>
-      </c>
-      <c r="F106">
-        <f t="shared" si="2"/>
+      <c r="G106">
+        <f>C106*F106</f>
         <v>3204.5603857438432</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="5"/>
-        <v>3150.2371342527945</v>
       </c>
       <c r="J106">
         <v>2700</v>
@@ -6614,7 +6614,7 @@
         <v>1.5</v>
       </c>
       <c r="L106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>4050</v>
       </c>
     </row>
@@ -6623,20 +6623,20 @@
         <v>2800</v>
       </c>
       <c r="D107">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C107,-0.376)</f>
+        <v>1.1509086070475278</v>
+      </c>
+      <c r="E107">
+        <f>C107*D107</f>
+        <v>3222.5440997330779</v>
+      </c>
+      <c r="F107">
+        <f>49.043*POWER(C107, -0.471)</f>
         <v>1.1667171874465989</v>
       </c>
-      <c r="E107">
-        <f t="shared" si="4"/>
-        <v>1.1509086070475278</v>
-      </c>
-      <c r="F107">
-        <f t="shared" si="2"/>
+      <c r="G107">
+        <f>C107*F107</f>
         <v>3266.8081248504768</v>
-      </c>
-      <c r="G107">
-        <f t="shared" si="5"/>
-        <v>3222.5440997330779</v>
       </c>
       <c r="J107">
         <v>2800</v>
@@ -6645,7 +6645,7 @@
         <v>1.5</v>
       </c>
       <c r="L107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>4200</v>
       </c>
     </row>
@@ -6654,20 +6654,20 @@
         <v>2900</v>
       </c>
       <c r="D108">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C108,-0.376)</f>
+        <v>1.1358228738685736</v>
+      </c>
+      <c r="E108">
+        <f>C108*D108</f>
+        <v>3293.8863342188633</v>
+      </c>
+      <c r="F108">
+        <f>49.043*POWER(C108, -0.471)</f>
         <v>1.1475921569372567</v>
       </c>
-      <c r="E108">
-        <f t="shared" si="4"/>
-        <v>1.1358228738685736</v>
-      </c>
-      <c r="F108">
-        <f t="shared" si="2"/>
+      <c r="G108">
+        <f>C108*F108</f>
         <v>3328.0172551180444</v>
-      </c>
-      <c r="G108">
-        <f t="shared" si="5"/>
-        <v>3293.8863342188633</v>
       </c>
       <c r="J108">
         <v>2900</v>
@@ -6676,7 +6676,7 @@
         <v>1.5</v>
       </c>
       <c r="L108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>4350</v>
       </c>
     </row>
@@ -6685,20 +6685,20 @@
         <v>3000</v>
       </c>
       <c r="D109">
-        <f t="shared" si="3"/>
+        <f>22.76*POWER(C109,-0.376)</f>
+        <v>1.1214364450988803</v>
+      </c>
+      <c r="E109">
+        <f>C109*D109</f>
+        <v>3364.3093352966407</v>
+      </c>
+      <c r="F109">
+        <f>49.043*POWER(C109, -0.471)</f>
         <v>1.1294133514937872</v>
       </c>
-      <c r="E109">
-        <f t="shared" si="4"/>
-        <v>1.1214364450988803</v>
-      </c>
-      <c r="F109">
-        <f t="shared" si="2"/>
+      <c r="G109">
+        <f>C109*F109</f>
         <v>3388.2400544813618</v>
-      </c>
-      <c r="G109">
-        <f t="shared" si="5"/>
-        <v>3364.3093352966407</v>
       </c>
       <c r="J109">
         <v>3000</v>
@@ -6707,7 +6707,7 @@
         <v>1.5</v>
       </c>
       <c r="L109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>4500</v>
       </c>
     </row>
